--- a/analysis/automated/results/annotated/probit_univariate_annotated.xlsx
+++ b/analysis/automated/results/annotated/probit_univariate_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/automated/results/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFFC9ED-BB99-4493-B8B4-579B84A7F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F620720-EA33-9C4A-9F04-6AE069AE712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dydx" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -556,7 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +576,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4678,6 +4677,230 @@
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="77"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="78"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="79"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="80"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5358,7 +5581,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6847,7 +7070,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10779,7 +11002,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -10835,7 +11058,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -10891,7 +11114,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -10947,7 +11170,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -11628,7 +11851,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15112,7 +15335,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -15168,7 +15391,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -15224,7 +15447,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -15280,7 +15503,7 @@
                   <a:cs typeface="Arial"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -15961,7 +16184,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17738,7 +17961,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19227,7 +19450,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20716,7 +20939,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -22133,7 +22356,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23622,7 +23845,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -33821,7 +34044,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43AE6EAE-A458-4CC5-894C-992E391A30B0}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43AE6EAE-A458-4CC5-894C-992E391A30B0}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -34048,7 +34271,7 @@
   <dataFields count="1">
     <dataField name="Sum of marginal_effect" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="8">
     <chartFormat chart="29" format="73" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -34085,6 +34308,54 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="29" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -34099,7 +34370,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{633566F4-B93E-4D2C-9975-52FC3ABD3FD8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{633566F4-B93E-4D2C-9975-52FC3ABD3FD8}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -34389,7 +34660,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975B7EE1-E311-4619-BC3B-0997C150C4DB}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975B7EE1-E311-4619-BC3B-0997C150C4DB}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -35121,135 +35392,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672015B8-C4DE-4FB1-B609-98DF5C8814A4}">
   <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="27" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="16" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="22" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.5" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="26" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="27" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="26" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.5" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="20" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="17" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="12" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="20" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="17" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -35257,7 +35524,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
@@ -35277,223 +35544,223 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.21126689717387889</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>0.1252468990477133</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>0.21836440738749671</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0.22778303857515569</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.7826612421842446</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.18139107099650409</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>0.1209904247916162</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>0.1201655608249223</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>0.206479268069542</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>0.62902632468258457</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.13421750525241519</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>8.4480851769859991E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>0.1008613834283095</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>0.13122130270602919</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0.45078104315661383</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.2174616460862592</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>0.1685148716236782</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>0.19778938779337521</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>0.3073914692600383</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>0.891157374763351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>0.12919093981106999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>0.12531030101654819</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>0.1184372089692583</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>0.20462472877447291</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>0.57756317857134931</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.26024875061865688</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>0.2217845432878825</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>0.17342293551857671</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>0.25037036070106289</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0.90582659012617894</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.2316447138928788</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>0.17284393514425669</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>0.13090331194347671</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>0.22348123750194129</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>0.75887319848255341</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>0.16629496947444519</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>0.12089348899684051</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>0.1233239901178302</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>0.17843369541712889</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>0.58894614400624479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.1074484633244524</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>8.755741247888349E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>0.11591137082212249</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>0.14528321326875571</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>0.45620045989421409</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0.2691158013493295</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>0.24858168635986649</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>0.19107502284778191</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>0.2682233455522765</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>0.97699585610925443</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>1.9082807579798899</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>1.4762044145171456</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>1.4902545796531501</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>2.1432916598264029</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>7.0180314119765894</v>
       </c>
     </row>
@@ -35507,139 +35774,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7CCA3-34CC-4853-B627-2EEE591866DA}">
   <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="27" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="16" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="22" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.5" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="26" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="27" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="26" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.5" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="20" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="17" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="12" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="20" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="17" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -35647,7 +35910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
@@ -35667,223 +35930,223 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.14321248845027579</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>4.2834092915124362E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>0.13707715518614369</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0.16152778571500459</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.4846515222665484</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.1087805463952017</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>4.3635749746958448E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>4.1803230801682863E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>0.13731850538040921</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>0.33153803232425222</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.12860400298576569</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>4.5158626748586478E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>6.4371799493252946E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>0.1196761224762407</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0.35781055170384579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.12373971285914639</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>6.6961078882265879E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>9.0180312542104984E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>0.2394177153225884</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>0.52029881960610569</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>0.13246277513895091</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>0.1249679407266347</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>9.9756221957427033E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>0.29671548548204951</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>0.65390242330506221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.16832299782025489</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>0.10997669190516909</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>6.5123072223863002E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>0.1513087758244529</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0.49473153777373985</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.14231497534246071</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>6.8887738169453705E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>3.9598784390437923E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>0.12908193506766419</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>0.37988343297001653</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>9.2872711060134061E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>4.1035621487204479E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>4.4779172270128828E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>0.104553499561567</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>0.28324100437903438</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.1172459333771551</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>6.9212061173076725E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>0.12317485434976561</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>0.2016076779696386</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>0.51124052686963606</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0.1931170930013961</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>0.14493767952502551</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>8.5079983899569639E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>0.18532270257923791</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>0.60845745900522907</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>1.3506732364307414</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>0.75760728127949939</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>0.79094458711437643</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>1.7265302053788527</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>4.6257553102034699</v>
       </c>
     </row>
@@ -35901,131 +36164,127 @@
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="27" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="16" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="22" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.5" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="26" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="27" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="26" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.5" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="20" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="17" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="12" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="20" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="17" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -36033,7 +36292,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
@@ -36053,223 +36312,223 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>408.12721364170659</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>483.96337491328569</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>414.22506356902443</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>384.04196610313511</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>1690.3576182271518</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>407.60116936364909</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>484.9797935828766</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>431.46962516514321</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>413.9388244306499</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>1737.9894125423189</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>401.53769244136959</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>488.40756439999569</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>424.2890843273675</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>406.27644836427987</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>1720.5107895330129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>389.0712280336702</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>465.78776129984118</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>413.27191881349142</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>394.05656839531269</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>1662.1874765423154</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>370.70628313202019</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>453.14534063974531</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>379.61776349508631</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>369.52839220627072</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>1572.9977794731226</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>370.16469865012482</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>440.52920176972532</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>383.06605904452908</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>366.07714272100537</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>1559.8371021853848</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>368.13528521462729</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>458.45724282860681</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>365.71069333774869</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>366.63232702954031</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>1558.9355484105231</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>259.11687671432469</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>314.05451048265752</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>266.99434855823438</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>261.84608917264609</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>1102.0118249278626</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>246.6110624264989</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>270.9399257087116</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>248.57072479496219</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>231.80890887186959</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>997.9306218020422</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>223.0219637328502</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>264.5150538711448</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>219.03149077062599</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>216.37368946208511</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>922.9421978367061</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>3444.0934733508411</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>4124.7797694965902</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>3546.2467718762136</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>3410.580356756795</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>14525.700371480441</v>
       </c>
     </row>
@@ -36283,22 +36542,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36327,7 +36586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -36356,7 +36615,7 @@
         <v>369.52839220627072</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -36385,7 +36644,7 @@
         <v>366.07714272100537</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -36414,7 +36673,7 @@
         <v>384.04196610313511</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -36443,7 +36702,7 @@
         <v>413.9388244306499</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -36472,7 +36731,7 @@
         <v>394.05656839531269</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -36501,7 +36760,7 @@
         <v>231.80890887186959</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -36530,7 +36789,7 @@
         <v>406.27644836427987</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -36559,7 +36818,7 @@
         <v>216.37368946208511</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -36588,7 +36847,7 @@
         <v>366.63232702954031</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -36617,7 +36876,7 @@
         <v>261.84608917264609</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -36646,7 +36905,7 @@
         <v>370.70628313202019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -36675,7 +36934,7 @@
         <v>370.16469865012482</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -36704,7 +36963,7 @@
         <v>408.12721364170659</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -36733,7 +36992,7 @@
         <v>407.60116936364909</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -36762,7 +37021,7 @@
         <v>389.0712280336702</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -36791,7 +37050,7 @@
         <v>246.6110624264989</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -36820,7 +37079,7 @@
         <v>401.53769244136959</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -36849,7 +37108,7 @@
         <v>223.0219637328502</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -36878,7 +37137,7 @@
         <v>368.13528521462729</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -36907,7 +37166,7 @@
         <v>259.11687671432469</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -36936,7 +37195,7 @@
         <v>453.14534063974531</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -36965,7 +37224,7 @@
         <v>440.52920176972532</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -36994,7 +37253,7 @@
         <v>483.96337491328569</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -37023,7 +37282,7 @@
         <v>484.9797935828766</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -37052,7 +37311,7 @@
         <v>465.78776129984118</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -37081,7 +37340,7 @@
         <v>270.9399257087116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -37110,7 +37369,7 @@
         <v>488.40756439999569</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -37139,7 +37398,7 @@
         <v>264.5150538711448</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -37168,7 +37427,7 @@
         <v>458.45724282860681</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -37197,7 +37456,7 @@
         <v>314.05451048265752</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -37226,7 +37485,7 @@
         <v>379.61776349508631</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -37255,7 +37514,7 @@
         <v>383.06605904452908</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -37284,7 +37543,7 @@
         <v>414.22506356902443</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -37313,7 +37572,7 @@
         <v>431.46962516514321</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -37342,7 +37601,7 @@
         <v>413.27191881349142</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -37371,7 +37630,7 @@
         <v>248.57072479496219</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -37400,7 +37659,7 @@
         <v>424.2890843273675</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -37429,7 +37688,7 @@
         <v>219.03149077062599</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -37458,7 +37717,7 @@
         <v>365.71069333774869</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -37487,7 +37746,7 @@
         <v>266.99434855823438</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -37516,7 +37775,7 @@
         <v>371.64396443355639</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -37545,7 +37804,7 @@
         <v>375.47886139909212</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -37574,7 +37833,7 @@
         <v>385.64131681372442</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -37603,7 +37862,7 @@
         <v>404.82634178133759</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -37632,7 +37891,7 @@
         <v>385.09369464698779</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -37661,7 +37920,7 @@
         <v>240.8764696729277</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -37690,7 +37949,7 @@
         <v>385.09369464698779</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -37719,7 +37978,7 @@
         <v>215.9820349192741</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -37748,7 +38007,7 @@
         <v>374.02660501483308</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -37777,7 +38036,7 @@
         <v>258.77591405004461</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -37806,7 +38065,7 @@
         <v>423.6198497807224</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -37835,7 +38094,7 @@
         <v>383.93092914460772</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -37864,7 +38123,7 @@
         <v>439.70604910935111</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -37893,7 +38152,7 @@
         <v>473.21398747373343</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -37922,7 +38181,7 @@
         <v>267.11778252648418</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -37951,7 +38210,7 @@
         <v>483.58640302301899</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -37980,7 +38239,7 @@
         <v>246.31873553179321</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -38009,7 +38268,7 @@
         <v>413.89583329871749</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -38038,7 +38297,7 @@
         <v>283.36212472090989</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -38067,7 +38326,7 @@
         <v>462.52709586809311</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -38096,7 +38355,7 @@
         <v>450.19085761375641</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -38125,7 +38384,7 @@
         <v>499.12392827861788</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -38154,7 +38413,7 @@
         <v>517.58408332474369</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -38183,7 +38442,7 @@
         <v>501.03647193346438</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -38212,7 +38471,7 @@
         <v>278.1333538243972</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -38241,7 +38500,7 @@
         <v>503.67681222148673</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -38270,7 +38529,7 @@
         <v>261.93110094330609</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -38299,7 +38558,7 @@
         <v>468.76986564439318</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -38328,7 +38587,7 @@
         <v>316.8216470201379</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -38357,7 +38616,7 @@
         <v>460.79937196166833</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -38386,7 +38645,7 @@
         <v>451.21590930276801</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -38415,7 +38674,7 @@
         <v>502.09017536566068</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -38444,7 +38703,7 @@
         <v>517.59093144684664</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -38473,7 +38732,7 @@
         <v>508.58764395979182</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -38502,7 +38761,7 @@
         <v>295.67031295278031</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -38531,7 +38790,7 @@
         <v>507.57755548858262</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -38560,7 +38819,7 @@
         <v>276.36233761096139</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -38589,7 +38848,7 @@
         <v>469.29951362254042</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -38618,7 +38877,7 @@
         <v>322.68447626074021</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -38647,7 +38906,7 @@
         <v>462.9465884902354</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -38676,7 +38935,7 @@
         <v>451.08216541669782</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -38705,7 +38964,7 @@
         <v>502.01388566607147</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -38734,7 +38993,7 @@
         <v>516.46661812856132</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -38763,7 +39022,7 @@
         <v>509.56918152761523</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -38792,7 +39051,7 @@
         <v>295.62638223734967</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -38821,7 +39080,7 @@
         <v>507.41077483317969</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -38850,7 +39109,7 @@
         <v>276.63623791500868</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -38879,7 +39138,7 @@
         <v>465.82311700660642</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -38908,7 +39167,7 @@
         <v>321.42011672496352</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>106</v>
       </c>
@@ -38937,7 +39196,7 @@
         <v>461.93998722121307</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>106</v>
       </c>
@@ -38966,7 +39225,7 @@
         <v>451.0842568869395</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
@@ -38995,7 +39254,7 @@
         <v>500.63341136373361</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -39024,7 +39283,7 @@
         <v>517.55363240288648</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -39053,7 +39312,7 @@
         <v>508.08220876524979</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -39082,7 +39341,7 @@
         <v>295.17537605790022</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
@@ -39111,7 +39370,7 @@
         <v>506.56692110214982</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -39140,7 +39399,7 @@
         <v>276.62956529761442</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -39169,7 +39428,7 @@
         <v>469.17640122362099</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>106</v>
       </c>
@@ -39198,7 +39457,7 @@
         <v>321.65504291410519</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -39227,7 +39486,7 @@
         <v>462.16209875817839</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -39256,7 +39515,7 @@
         <v>451.08915418932389</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
@@ -39285,7 +39544,7 @@
         <v>496.21012007774362</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -39314,7 +39573,7 @@
         <v>517.31178344579746</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -39343,7 +39602,7 @@
         <v>510.03896450496183</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -39372,7 +39631,7 @@
         <v>290.04830727570351</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -39401,7 +39660,7 @@
         <v>507.34290039343807</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -39430,7 +39689,7 @@
         <v>276.50488429839669</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -39459,7 +39718,7 @@
         <v>468.95031397761329</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -39488,7 +39747,7 @@
         <v>322.65396292229087</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -39517,7 +39776,7 @@
         <v>462.64669372348692</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -39546,7 +39805,7 @@
         <v>451.1215787032076</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -39575,7 +39834,7 @@
         <v>500.42331802515298</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
@@ -39604,7 +39863,7 @@
         <v>516.48649188388924</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
@@ -39633,7 +39892,7 @@
         <v>507.28202661186879</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
@@ -39662,7 +39921,7 @@
         <v>294.36815423395149</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
@@ -39691,7 +39950,7 @@
         <v>504.80149687872068</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -39720,7 +39979,7 @@
         <v>268.61910322645753</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -39749,7 +40008,7 @@
         <v>468.83971125310671</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
